--- a/mMonitoreoTeoricos/formatos/Importador.xlsx
+++ b/mMonitoreoTeoricos/formatos/Importador.xlsx
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -148,9 +148,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -569,7 +566,7 @@
   <dimension ref="A1:A291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +610,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
